--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1040615.894437328</v>
+        <v>1014159.008466807</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826582</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631244</v>
+        <v>2990033.635411731</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10374296.2231505</v>
+        <v>10794469.2273961</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>150.7965934798255</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9773780113852</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325235</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>48.9769967570045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.28463004918693</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>286.6138362188084</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>121.1255468472098</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>84.4526210585752</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5134569480836</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.189581134911</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>68.22769775781612</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0426595656942</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229328</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017904</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>88.61733667523936</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.35693236788119</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.14085215535538</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.53808456192914</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274103</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883384939</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014456</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>101.2386603312939</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301366</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113083</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274103</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014456</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.66951228026589</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>42.81113462701448</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>139.7861096747049</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>109.1121207897269</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>94.16481274941266</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>89.15058872626284</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.4019814764075</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>38.59744043553532</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.806495672434</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>1695.806495672434</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.540797065683</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>951.7525444674388</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>951.7525444674388</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942548</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942548</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672434</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672434</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.806495672434</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746713</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623356</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799425</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>222.9427820820321</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1577.945354755378</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C5" t="n">
-        <v>1208.982837814967</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="D5" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2648.376737433185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2648.376737433185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2648.376737433185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2648.376737433185</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.313850089614</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.5451948195</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.5451948195</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.5451948195</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2069.921547395234</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C8" t="n">
-        <v>2069.921547395234</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.655848788484</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="E8" t="n">
-        <v>1325.867596190239</v>
+        <v>594.2558271415814</v>
       </c>
       <c r="F8" t="n">
-        <v>914.8816914006318</v>
+        <v>594.2558271415814</v>
       </c>
       <c r="G8" t="n">
-        <v>496.9178832988187</v>
+        <v>176.2920190397683</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>176.2920190397683</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y8" t="n">
-        <v>2069.921547395234</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4898,34 +4898,34 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.915471247702</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.952954307291</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1122.952954307291</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>737.1647017090463</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1787969194388</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.654643287636</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.515311311824</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>291.7960311703079</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C13" t="n">
-        <v>122.8598482424009</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D13" t="n">
-        <v>122.8598482424009</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>122.8598482424009</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>122.8598482424009</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>473.4444960005476</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>473.4444960005476</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>473.4444960005476</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.4444960005476</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1933.544000781332</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.581483840921</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.31578523417</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>820.5275326359258</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>409.5416278463182</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036448</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036448</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733128</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280444</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977176</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018224</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018224</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018224</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018224</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018224</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018224</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018224</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757144</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781332</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036448</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614631</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571351</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036448</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036448</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036448</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036448</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036448</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036448</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036448</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866327</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477912</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502503</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594904</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064347</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064347</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064347</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064347</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064347</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>598.044640063212</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>343.3601518573251</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036448</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036448</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036448</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1411.687045943881</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1411.687045943881</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.901630733387</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.901630733387</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2171425274998</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>643.7999724905393</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4458.413529040523</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>4289.477346112616</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>4139.36070670028</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>3991.447613117887</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3844.557665619977</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3676.382343939797</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3525.964335487741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y22" t="n">
-        <v>4640.061993870762</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126477</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571598</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636231</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643584</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307616</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526312</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3778.208216256914</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.272033329007</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916672</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916672</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916672</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380581</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636321</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403504</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431051</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436448</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.02113004213</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4698.055981165662</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>4408.638811128701</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>4180.649260230684</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>3959.856681087154</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550593</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610182</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003431</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405187</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155795</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805376</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823779</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619122</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643317</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899119</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207821</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014284</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141858</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465292</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121721</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851607</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590527</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614715</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126477</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147069</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211703</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.693239001131</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324678</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060425</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.7169704793911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>591.7807875514842</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>441.6641481391484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>441.6641481391484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>441.6641481391484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241953</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471176</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557899</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557899</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557899</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520939</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229212</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793911</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,49 +6445,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823868</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514156</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.79489128174</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945772</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164468</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.74515569858</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3969.364880169633</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>3800.428697241726</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>3650.312057829391</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>3502.398964246997</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.15539391668</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143403</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.805924143403</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X31" t="n">
-        <v>4371.805924143403</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y31" t="n">
-        <v>4151.013344999873</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823868</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514156</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.79489128174</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945772</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164468</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.74515569858</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>820.5263570570711</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>820.5263570570711</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>670.4097176447353</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>522.4966240623422</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>375.6066765644318</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>207.4313548842524</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262958</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.210845262958</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570711</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>820.5263570570711</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X34" t="n">
-        <v>820.5263570570711</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y34" t="n">
-        <v>820.5263570570711</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3554.271366390831</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>3554.271366390831</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288848</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W37" t="n">
-        <v>3782.260917288848</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X37" t="n">
-        <v>3554.271366390831</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y37" t="n">
-        <v>3554.271366390831</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,64 +7399,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.787631771461</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.787631771461</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,16 +7651,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3646.055801070316</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>3646.055801070316</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499068</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4371.805924143403</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4117.121435937516</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>3827.704265900556</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3827.704265900556</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>3827.704265900556</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951785</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>327.4218609627882</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>104.8749102765749</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270188</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.658803395178</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P24" t="n">
-        <v>288.409182577681</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544524</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503224</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544524</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720825</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776798</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445238</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720825</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776798</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445238</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>214.4762982911821</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8067920094097758</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22716,19 +22716,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.17392975220741</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.193772525624766</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,19 +22840,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>123.0794055939013</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37.30893654554876</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>30.80576939765143</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85718120047571</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -23235,16 +23235,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>48.42589188330139</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>99.0821045012348</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>61.74151045510075</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481164</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491426</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401873</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>129.9673166768554</v>
       </c>
     </row>
     <row r="17">
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.60742003591162</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>44.27839330891661</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>155.0094764964601</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7.986500349943526e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>78.59331985064341</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>90.96703739369136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.43600753089413e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.82405618311169</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102.6099133959168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>37.08296280093785</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>40.04587050723242</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.80170757780925</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>16.25443271485932</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>132.3969723321264</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>262.2258133653231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.18267187568728</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>110.018032582677</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151152</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752713.4422151152</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752713.4422151154</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993665.8861845444</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993665.8861845443</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993665.8861845451</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165454</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.512724594</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245939</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
@@ -26352,7 +26352,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="O2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="P2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663649</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.007056156352823e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.119338776334189e-09</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.471986959</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.6561755686</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773398</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773398</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773394</v>
@@ -26456,10 +26456,10 @@
         <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340949</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871646</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414019.3729369772</v>
+        <v>-420087.7866827961</v>
       </c>
       <c r="C6" t="n">
-        <v>175948.5062775673</v>
+        <v>169880.0925317482</v>
       </c>
       <c r="D6" t="n">
-        <v>175948.5062775674</v>
+        <v>169880.092531748</v>
       </c>
       <c r="E6" t="n">
-        <v>209576.1062775674</v>
+        <v>-243973.924478474</v>
       </c>
       <c r="F6" t="n">
-        <v>209576.1062775672</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="G6" t="n">
-        <v>-218019.8380082211</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="H6" t="n">
-        <v>282160.7032581439</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="I6" t="n">
-        <v>282160.7032581453</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="J6" t="n">
-        <v>105737.4840655505</v>
+        <v>104762.892805829</v>
       </c>
       <c r="K6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="L6" t="n">
-        <v>282160.7032581436</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="M6" t="n">
-        <v>282160.7032581426</v>
+        <v>146385.0967645849</v>
       </c>
       <c r="N6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="O6" t="n">
-        <v>151986.2312711847</v>
+        <v>281186.1119984222</v>
       </c>
       <c r="P6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170869</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054540986</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054540986</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545559</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26810,10 +26810,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370133</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.529765418758268e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990171</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340047</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141001</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554471</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727437</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081579</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405369</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338306</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954668</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633804</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727385</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473558</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141115</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.84709008118892</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890691</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396482</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736702</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034986</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131474</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372667</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078615</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644447</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492006</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813581</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302245</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246925</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666595</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175851</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383806</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678012</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701166</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695337</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197226</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961198</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565507</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540874</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104634</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127052</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.747805621573</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358977</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458542</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361475</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081161</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990342</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298621</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337656</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892232</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351798</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961198</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565507</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540874</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104634</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127052</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.747805621573</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358977</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458542</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361475</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081161</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990342</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298621</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337656</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892232</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351798</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>365.2844632307148</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343421</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435304</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060967</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492239</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530454</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116799</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338904</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>444.58174042459</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>56.8709020871396</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850086</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3708461458881</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873155</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415073</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221104</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.154607095146</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349768</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560235</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980119</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411073</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092049</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209228</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556532</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206024</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718745</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415073</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221104</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095146</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349768</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560235</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980119</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914298</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714611</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556532</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206024</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718745</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415161</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092038</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415161</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092038</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014159.008466807</v>
+        <v>1036311.854486259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.635411731</v>
+        <v>3522967.675855586</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10794469.2273961</v>
+        <v>10574672.29878194</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>150.7965934798255</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>193.144199102302</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.9769967570045</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>339.5091118684755</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>177.2926684532968</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>50.25326253753312</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>121.1255468472098</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>7.080813308213998</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.189581134911</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>91.898653445192</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>400.954118064915</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.61733667523936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>92.56502793932739</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>66.53808456192914</v>
+        <v>125.7541714875889</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.2386603312939</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>87.69502478598767</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>215.0546805228902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.7861096747049</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>89.15058872626284</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>160.7539405631285</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>24.01153903325422</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>255.6160124902395</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>64.35126176470104</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.619444146874</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C5" t="n">
-        <v>1611.619444146874</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.219284210995</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>638.1631929376285</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>638.1631929376285</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.006596680237</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C8" t="n">
-        <v>980.0440797398257</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D8" t="n">
-        <v>980.0440797398257</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E8" t="n">
-        <v>594.2558271415814</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F8" t="n">
-        <v>594.2558271415814</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>176.2920190397683</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>176.2920190397683</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2125.745768720171</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1735.606436744359</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1776.509221818346</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556124</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>2900.035304000316</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2547.266648730201</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2173.800890469121</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>1783.66155849331</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>141.5996147899769</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>645.9611546560947</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1286.506504123198</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1959.71219637598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2509.148205128702</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286132</v>
+        <v>313.7086652964419</v>
       </c>
       <c r="C13" t="n">
-        <v>496.7497906007063</v>
+        <v>313.7086652964419</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>313.7086652964419</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>220.8817426245308</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>495.3571301266816</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>1770.527476690269</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1401.564959749857</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1401.564959749857</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1015.776707151613</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2157.12731675439</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>339.3088747251222</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>843.6704145912399</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1484.215764058344</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.095276920732</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O15" t="n">
-        <v>2187.63534213943</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y16" t="n">
-        <v>576.1735122404926</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>870.6357136032432</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,25 +5773,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1120.710970609089</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="U22" t="n">
-        <v>1120.710970609089</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="V22" t="n">
-        <v>1120.710970609089</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W22" t="n">
-        <v>1120.710970609089</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X22" t="n">
-        <v>892.7214197110717</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>480.6009656577486</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>332.6878720753555</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>185.7979245774451</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>1281.689320534781</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.689320534781</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.689320534781</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.446367141521</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>1020.446367141521</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1408.865170834405</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1119.736532047963</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="V37" t="n">
-        <v>865.0520438420759</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="W37" t="n">
-        <v>865.0520438420759</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="X37" t="n">
-        <v>637.0624929440586</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y37" t="n">
-        <v>416.2699138005285</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1050.956765431391</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255036</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885429</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>104.8749102765749</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162593302</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7063231668133</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>145.2351313103796</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>253.7371603504737</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>214.4762982911821</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>156.096769615111</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,22 +22707,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.97620323457193</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>96.44405126592675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22761,13 +22761,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>15.17392975220741</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>204.637701618965</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>24.37936745074313</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,10 +22950,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22992,22 +22992,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>123.0794055939013</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>315.0196292334744</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>30.80576939765143</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,13 +23077,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>50.7817782392907</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>375.6530283552666</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>48.42589188330139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>54.53530920137717</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.921927676796486</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>60.69561706280464</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.9673166768554</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>159.5726153845006</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>155.0094764964601</v>
+        <v>95.79338957080034</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.59331985064341</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.79854367738992</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>37.08296280093785</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.04587050723242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,19 +25365,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>132.3969723321264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>125.4834118354488</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>262.2258133653231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>30.90698584635155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>161.3583936243361</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151152</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993665.8861845451</v>
+        <v>867621.1222624921</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993665.8861845451</v>
+        <v>867621.1222624923</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993665.8861845451</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="15">
@@ -26316,37 +26316,37 @@
         <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="E2" t="n">
-        <v>410580.5127245944</v>
+        <v>354622.4384779895</v>
       </c>
       <c r="F2" t="n">
-        <v>410580.5127245943</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="M2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="N2" t="n">
         <v>410580.5127245943</v>
@@ -26355,7 +26355,7 @@
         <v>410580.5127245944</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965298</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
+        <v>40808.29226915613</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40808.29226915613</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773396</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420087.7866827961</v>
+        <v>-414626.214311559</v>
       </c>
       <c r="C6" t="n">
-        <v>169880.0925317482</v>
+        <v>175341.6649029855</v>
       </c>
       <c r="D6" t="n">
-        <v>169880.092531748</v>
+        <v>175341.6649029857</v>
       </c>
       <c r="E6" t="n">
-        <v>-243973.924478474</v>
+        <v>-3868.091839804576</v>
       </c>
       <c r="F6" t="n">
-        <v>281186.1119984221</v>
+        <v>244278.676779038</v>
       </c>
       <c r="G6" t="n">
-        <v>281186.1119984221</v>
+        <v>18300.35486626081</v>
       </c>
       <c r="H6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321714</v>
       </c>
       <c r="I6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="J6" t="n">
-        <v>104762.892805829</v>
+        <v>105640.0249395786</v>
       </c>
       <c r="K6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="L6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321715</v>
       </c>
       <c r="M6" t="n">
-        <v>146385.0967645849</v>
+        <v>219610.1882425186</v>
       </c>
       <c r="N6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="O6" t="n">
-        <v>281186.1119984222</v>
+        <v>212198.3592822605</v>
       </c>
       <c r="P6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321717</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.897439082756</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160369</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>68.29072693268327</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>387.238612517683</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>125.7087941787594</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>267.9970500994966</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
-        <v>352.3285462419043</v>
+        <v>109.7875025528264</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>536.1008625915819</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
